--- a/dataanalysis/data/predictions/1400/07251435_1438.xlsx
+++ b/dataanalysis/data/predictions/1400/07251435_1438.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="158">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-25</t>
   </si>
   <si>
@@ -485,12 +488,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -848,13 +845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA80"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,19 +933,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0.4</v>
@@ -966,7 +966,7 @@
         <v>54452.81</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -986,8 +986,23 @@
       <c r="P2">
         <v>-0.51</v>
       </c>
+      <c r="Q2">
+        <v>0.8</v>
+      </c>
+      <c r="R2">
+        <v>5.27</v>
+      </c>
+      <c r="S2">
+        <v>5.61</v>
+      </c>
       <c r="V2" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -995,22 +1010,25 @@
       <c r="Z2">
         <v>0.935251772403717</v>
       </c>
-      <c r="AA2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-3.03</v>
@@ -1028,7 +1046,7 @@
         <v>57905.65</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K3">
         <v>13</v>
@@ -1048,8 +1066,23 @@
       <c r="P3">
         <v>-0.78</v>
       </c>
+      <c r="Q3">
+        <v>0.05</v>
+      </c>
+      <c r="R3">
+        <v>22.18</v>
+      </c>
+      <c r="S3">
+        <v>0.36</v>
+      </c>
       <c r="V3" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1057,22 +1090,25 @@
       <c r="Z3">
         <v>2.592651605606079</v>
       </c>
-      <c r="AA3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>3.22</v>
@@ -1090,7 +1126,7 @@
         <v>140086.5</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1110,8 +1146,23 @@
       <c r="P4">
         <v>-0.25</v>
       </c>
+      <c r="Q4">
+        <v>8.92</v>
+      </c>
+      <c r="R4">
+        <v>7.02</v>
+      </c>
+      <c r="S4">
+        <v>9.52</v>
+      </c>
       <c r="V4" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1119,22 +1170,25 @@
       <c r="Z4">
         <v>2.32339334487915</v>
       </c>
-      <c r="AA4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300046</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1.74</v>
@@ -1152,7 +1206,7 @@
         <v>124340.89</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1172,8 +1226,23 @@
       <c r="P5">
         <v>-0.13</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>44.11</v>
+      </c>
+      <c r="S5">
+        <v>3.06</v>
+      </c>
       <c r="V5" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1181,22 +1250,25 @@
       <c r="Z5">
         <v>8.945111274719238</v>
       </c>
-      <c r="AA5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300066</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-3.92</v>
@@ -1214,7 +1286,7 @@
         <v>73931.19</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K6">
         <v>11</v>
@@ -1234,8 +1306,23 @@
       <c r="P6">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="Q6">
+        <v>2.84</v>
+      </c>
+      <c r="R6">
+        <v>6.62</v>
+      </c>
+      <c r="S6">
+        <v>3.92</v>
+      </c>
       <c r="V6" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1243,22 +1330,25 @@
       <c r="Z6">
         <v>2.755048274993896</v>
       </c>
-      <c r="AA6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300086</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>3.31</v>
@@ -1276,7 +1366,7 @@
         <v>145699.32</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1296,8 +1386,23 @@
       <c r="P7">
         <v>-4.38</v>
       </c>
+      <c r="Q7">
+        <v>4.34</v>
+      </c>
+      <c r="R7">
+        <v>8.35</v>
+      </c>
+      <c r="S7">
+        <v>6.91</v>
+      </c>
       <c r="V7" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1305,22 +1410,25 @@
       <c r="Z7">
         <v>9.509297370910645</v>
       </c>
-      <c r="AA7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300095</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-4.88</v>
@@ -1338,7 +1446,7 @@
         <v>54941.55</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1358,8 +1466,23 @@
       <c r="P8">
         <v>-2.06</v>
       </c>
+      <c r="Q8">
+        <v>1.1</v>
+      </c>
+      <c r="R8">
+        <v>11.17</v>
+      </c>
+      <c r="S8">
+        <v>2.29</v>
+      </c>
       <c r="V8" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1367,22 +1490,25 @@
       <c r="Z8">
         <v>6.677393913269043</v>
       </c>
-      <c r="AA8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300127</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>1.07</v>
@@ -1400,7 +1526,7 @@
         <v>84968.25</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1420,8 +1546,23 @@
       <c r="P9">
         <v>-0.74</v>
       </c>
+      <c r="Q9">
+        <v>-0.32</v>
+      </c>
+      <c r="R9">
+        <v>31.55</v>
+      </c>
+      <c r="S9">
+        <v>1.19</v>
+      </c>
       <c r="V9" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1429,22 +1570,25 @@
       <c r="Z9">
         <v>9.086156845092773</v>
       </c>
-      <c r="AA9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300158</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>10.85</v>
@@ -1462,7 +1606,7 @@
         <v>161593.88</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1482,8 +1626,23 @@
       <c r="P10">
         <v>1.58</v>
       </c>
+      <c r="Q10">
+        <v>2.56</v>
+      </c>
+      <c r="R10">
+        <v>7.75</v>
+      </c>
+      <c r="S10">
+        <v>8.390000000000001</v>
+      </c>
       <c r="V10" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1491,22 +1650,25 @@
       <c r="Z10">
         <v>1.604020714759827</v>
       </c>
-      <c r="AA10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300189</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-9.69</v>
@@ -1524,7 +1686,7 @@
         <v>155695.09</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1544,8 +1706,23 @@
       <c r="P11">
         <v>-7.09</v>
       </c>
+      <c r="Q11">
+        <v>-2.02</v>
+      </c>
+      <c r="R11">
+        <v>4.98</v>
+      </c>
+      <c r="S11">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="V11" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1553,22 +1730,25 @@
       <c r="Z11">
         <v>1.643124938011169</v>
       </c>
-      <c r="AA11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300199</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>-0.05</v>
@@ -1586,7 +1766,7 @@
         <v>103482.76</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <v>18</v>
@@ -1606,8 +1786,23 @@
       <c r="P12">
         <v>-0.57</v>
       </c>
+      <c r="Q12">
+        <v>2.3</v>
+      </c>
+      <c r="R12">
+        <v>19.3</v>
+      </c>
+      <c r="S12">
+        <v>3.32</v>
+      </c>
       <c r="V12" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1615,22 +1810,25 @@
       <c r="Z12">
         <v>4.070508003234863</v>
       </c>
-      <c r="AA12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300224</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>5.89</v>
@@ -1648,7 +1846,7 @@
         <v>179177.36</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1668,8 +1866,23 @@
       <c r="P13">
         <v>-0.58</v>
       </c>
+      <c r="Q13">
+        <v>-0.99</v>
+      </c>
+      <c r="R13">
+        <v>17.2</v>
+      </c>
+      <c r="S13">
+        <v>0.64</v>
+      </c>
       <c r="V13" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1677,22 +1890,25 @@
       <c r="Z13">
         <v>10.39198112487793</v>
       </c>
-      <c r="AA13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300254</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-2.05</v>
@@ -1710,7 +1926,7 @@
         <v>57954.21</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1730,8 +1946,23 @@
       <c r="P14">
         <v>-1.83</v>
       </c>
+      <c r="Q14">
+        <v>4.48</v>
+      </c>
+      <c r="R14">
+        <v>12.3</v>
+      </c>
+      <c r="S14">
+        <v>7.42</v>
+      </c>
       <c r="V14" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1739,22 +1970,25 @@
       <c r="Z14">
         <v>2.011220216751099</v>
       </c>
-      <c r="AA14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300267</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>5.59</v>
@@ -1772,7 +2006,7 @@
         <v>90013.64</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1792,8 +2026,23 @@
       <c r="P15">
         <v>0.42</v>
       </c>
+      <c r="Q15">
+        <v>15.43</v>
+      </c>
+      <c r="R15">
+        <v>4.51</v>
+      </c>
+      <c r="S15">
+        <v>19.31</v>
+      </c>
       <c r="V15" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1801,22 +2050,25 @@
       <c r="Z15">
         <v>3.433265924453735</v>
       </c>
-      <c r="AA15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300283</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>-7.68</v>
@@ -1834,7 +2086,7 @@
         <v>46207.36</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -1854,8 +2106,23 @@
       <c r="P16">
         <v>-2.2</v>
       </c>
+      <c r="Q16">
+        <v>5.05</v>
+      </c>
+      <c r="R16">
+        <v>7.72</v>
+      </c>
+      <c r="S16">
+        <v>5.32</v>
+      </c>
       <c r="V16" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1863,22 +2130,25 @@
       <c r="Z16">
         <v>3.960145235061646</v>
       </c>
-      <c r="AA16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300329</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>-1.85</v>
@@ -1896,7 +2166,7 @@
         <v>60151.05</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1916,8 +2186,23 @@
       <c r="P17">
         <v>-2.91</v>
       </c>
+      <c r="Q17">
+        <v>-3.67</v>
+      </c>
+      <c r="R17">
+        <v>10.1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
       <c r="V17" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -1925,22 +2210,25 @@
       <c r="Z17">
         <v>3.540751218795776</v>
       </c>
-      <c r="AA17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300363</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>8.23</v>
@@ -1958,7 +2246,7 @@
         <v>144476.84</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1978,8 +2266,23 @@
       <c r="P18">
         <v>-0.52</v>
       </c>
+      <c r="Q18">
+        <v>4.99</v>
+      </c>
+      <c r="R18">
+        <v>24.98</v>
+      </c>
+      <c r="S18">
+        <v>4.91</v>
+      </c>
       <c r="V18" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -1987,22 +2290,25 @@
       <c r="Z18">
         <v>1.612521529197693</v>
       </c>
-      <c r="AA18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300378</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>5.94</v>
@@ -2020,7 +2326,7 @@
         <v>182096.79</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2040,8 +2346,23 @@
       <c r="P19">
         <v>0.65</v>
       </c>
+      <c r="Q19">
+        <v>-0.65</v>
+      </c>
+      <c r="R19">
+        <v>50.22</v>
+      </c>
+      <c r="S19">
+        <v>0.22</v>
+      </c>
       <c r="V19" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -2049,22 +2370,25 @@
       <c r="Z19">
         <v>5.797217845916748</v>
       </c>
-      <c r="AA19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300414</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-8.18</v>
@@ -2082,7 +2406,7 @@
         <v>80960.38</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -2102,8 +2426,23 @@
       <c r="P20">
         <v>-1.7</v>
       </c>
+      <c r="Q20">
+        <v>2.86</v>
+      </c>
+      <c r="R20">
+        <v>14.5</v>
+      </c>
+      <c r="S20">
+        <v>4.17</v>
+      </c>
       <c r="V20" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2111,22 +2450,25 @@
       <c r="Z20">
         <v>1.264435291290283</v>
       </c>
-      <c r="AA20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300436</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>5.19</v>
@@ -2144,7 +2486,7 @@
         <v>112833.14</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K21">
         <v>17</v>
@@ -2164,8 +2506,23 @@
       <c r="P21">
         <v>0.75</v>
       </c>
+      <c r="Q21">
+        <v>13.68</v>
+      </c>
+      <c r="R21">
+        <v>88.88</v>
+      </c>
+      <c r="S21">
+        <v>15.43</v>
+      </c>
       <c r="V21" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2173,22 +2530,25 @@
       <c r="Z21">
         <v>0.2029189914464951</v>
       </c>
-      <c r="AA21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300485</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-2.88</v>
@@ -2206,7 +2566,7 @@
         <v>41112.71</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2226,8 +2586,23 @@
       <c r="P22">
         <v>-1.76</v>
       </c>
+      <c r="Q22">
+        <v>0.34</v>
+      </c>
+      <c r="R22">
+        <v>15.24</v>
+      </c>
+      <c r="S22">
+        <v>2.76</v>
+      </c>
       <c r="V22" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2235,22 +2610,25 @@
       <c r="Z22">
         <v>0.79651939868927</v>
       </c>
-      <c r="AA22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300490</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>-6.25</v>
@@ -2268,7 +2646,7 @@
         <v>59478.15</v>
       </c>
       <c r="J23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2288,8 +2666,23 @@
       <c r="P23">
         <v>-2.13</v>
       </c>
+      <c r="Q23">
+        <v>-1.69</v>
+      </c>
+      <c r="R23">
+        <v>10.04</v>
+      </c>
+      <c r="S23">
+        <v>-0.1</v>
+      </c>
       <c r="V23" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2297,22 +2690,25 @@
       <c r="Z23">
         <v>6.124603271484375</v>
       </c>
-      <c r="AA23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300500</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-6.88</v>
@@ -2330,7 +2726,7 @@
         <v>31918.74</v>
       </c>
       <c r="J24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2350,8 +2746,23 @@
       <c r="P24">
         <v>-0.99</v>
       </c>
+      <c r="Q24">
+        <v>-1.03</v>
+      </c>
+      <c r="R24">
+        <v>13.52</v>
+      </c>
+      <c r="S24">
+        <v>-0.07000000000000001</v>
+      </c>
       <c r="V24" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2359,22 +2770,25 @@
       <c r="Z24">
         <v>3.385952949523926</v>
       </c>
-      <c r="AA24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300527</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-1.39</v>
@@ -2392,7 +2806,7 @@
         <v>50438.14</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K25">
         <v>19</v>
@@ -2412,8 +2826,23 @@
       <c r="P25">
         <v>-0.42</v>
       </c>
+      <c r="Q25">
+        <v>1.24</v>
+      </c>
+      <c r="R25">
+        <v>11.61</v>
+      </c>
+      <c r="S25">
+        <v>2.38</v>
+      </c>
       <c r="V25" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2421,22 +2850,25 @@
       <c r="Z25">
         <v>5.013564586639404</v>
       </c>
-      <c r="AA25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300528</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>3.29</v>
@@ -2454,7 +2886,7 @@
         <v>97440.5</v>
       </c>
       <c r="J26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2474,8 +2906,23 @@
       <c r="P26">
         <v>0.05</v>
       </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+      <c r="R26">
+        <v>17.58</v>
+      </c>
+      <c r="S26">
+        <v>19.27</v>
+      </c>
       <c r="V26" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2483,22 +2930,25 @@
       <c r="Z26">
         <v>1.313828110694885</v>
       </c>
-      <c r="AA26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300533</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>-0.7</v>
@@ -2516,7 +2966,7 @@
         <v>40558.58</v>
       </c>
       <c r="J27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K27">
         <v>23</v>
@@ -2536,8 +2986,23 @@
       <c r="P27">
         <v>-0.9</v>
       </c>
+      <c r="Q27">
+        <v>1.13</v>
+      </c>
+      <c r="R27">
+        <v>36.24</v>
+      </c>
+      <c r="S27">
+        <v>2.46</v>
+      </c>
       <c r="V27" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2545,22 +3010,25 @@
       <c r="Z27">
         <v>1.35067892074585</v>
       </c>
-      <c r="AA27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300539</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>19.99</v>
@@ -2578,7 +3046,7 @@
         <v>108324.8</v>
       </c>
       <c r="J28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2598,8 +3066,23 @@
       <c r="P28">
         <v>0.95</v>
       </c>
+      <c r="Q28">
+        <v>4.47</v>
+      </c>
+      <c r="R28">
+        <v>28</v>
+      </c>
+      <c r="S28">
+        <v>18.09</v>
+      </c>
       <c r="V28" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>1</v>
@@ -2607,22 +3090,25 @@
       <c r="Z28">
         <v>6.635385036468506</v>
       </c>
-      <c r="AA28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300548</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-1.12</v>
@@ -2640,7 +3126,7 @@
         <v>141302.31</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -2660,8 +3146,23 @@
       <c r="P29">
         <v>-0.83</v>
       </c>
+      <c r="Q29">
+        <v>1.74</v>
+      </c>
+      <c r="R29">
+        <v>85.36</v>
+      </c>
+      <c r="S29">
+        <v>3.29</v>
+      </c>
       <c r="V29" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2669,22 +3170,25 @@
       <c r="Z29">
         <v>1.48671281337738</v>
       </c>
-      <c r="AA29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300581</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-1.98</v>
@@ -2702,7 +3206,7 @@
         <v>72632.59</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -2722,8 +3226,23 @@
       <c r="P30">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="Q30">
+        <v>4.06</v>
+      </c>
+      <c r="R30">
+        <v>21.7</v>
+      </c>
+      <c r="S30">
+        <v>4.43</v>
+      </c>
       <c r="V30" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2731,22 +3250,25 @@
       <c r="Z30">
         <v>2.109487771987915</v>
       </c>
-      <c r="AA30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300631</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>-5.77</v>
@@ -2764,7 +3286,7 @@
         <v>70184.88</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -2784,8 +3306,23 @@
       <c r="P31">
         <v>-0.74</v>
       </c>
+      <c r="Q31">
+        <v>0.48</v>
+      </c>
+      <c r="R31">
+        <v>33.4</v>
+      </c>
+      <c r="S31">
+        <v>0.72</v>
+      </c>
       <c r="V31" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2793,22 +3330,25 @@
       <c r="Z31">
         <v>1.809148788452148</v>
       </c>
-      <c r="AA31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300644</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>0.06</v>
@@ -2826,7 +3366,7 @@
         <v>27690.69</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K32">
         <v>7</v>
@@ -2846,8 +3386,23 @@
       <c r="P32">
         <v>-0.2</v>
       </c>
+      <c r="Q32">
+        <v>5.57</v>
+      </c>
+      <c r="R32">
+        <v>34.27</v>
+      </c>
+      <c r="S32">
+        <v>6.1</v>
+      </c>
       <c r="V32" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2855,22 +3410,25 @@
       <c r="Z32">
         <v>0.7508336901664734</v>
       </c>
-      <c r="AA32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300665</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-4.39</v>
@@ -2888,7 +3446,7 @@
         <v>23599.41</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -2908,8 +3466,23 @@
       <c r="P33">
         <v>-2.96</v>
       </c>
+      <c r="Q33">
+        <v>2.31</v>
+      </c>
+      <c r="R33">
+        <v>9.82</v>
+      </c>
+      <c r="S33">
+        <v>2.51</v>
+      </c>
       <c r="V33" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2917,22 +3490,25 @@
       <c r="Z33">
         <v>-1.010180354118347</v>
       </c>
-      <c r="AA33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300683</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>8.220000000000001</v>
@@ -2950,7 +3526,7 @@
         <v>82201.10000000001</v>
       </c>
       <c r="J34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -2970,8 +3546,23 @@
       <c r="P34">
         <v>0.98</v>
       </c>
+      <c r="Q34">
+        <v>-5.45</v>
+      </c>
+      <c r="R34">
+        <v>45.5</v>
+      </c>
+      <c r="S34">
+        <v>-1.3</v>
+      </c>
       <c r="V34" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>1</v>
@@ -2979,22 +3570,25 @@
       <c r="Z34">
         <v>3.201264619827271</v>
       </c>
-      <c r="AA34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300706</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>19.99</v>
@@ -3012,7 +3606,7 @@
         <v>113383.16</v>
       </c>
       <c r="J35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3032,8 +3626,23 @@
       <c r="P35">
         <v>7.09</v>
       </c>
+      <c r="Q35">
+        <v>9.18</v>
+      </c>
+      <c r="R35">
+        <v>37.68</v>
+      </c>
+      <c r="S35">
+        <v>12.71</v>
+      </c>
       <c r="V35" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3041,22 +3650,25 @@
       <c r="Z35">
         <v>6.888310432434082</v>
       </c>
-      <c r="AA35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300722</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-2.23</v>
@@ -3074,7 +3686,7 @@
         <v>47907.27</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3094,8 +3706,23 @@
       <c r="P36">
         <v>-0.64</v>
       </c>
+      <c r="Q36">
+        <v>1.22</v>
+      </c>
+      <c r="R36">
+        <v>38.67</v>
+      </c>
+      <c r="S36">
+        <v>2.46</v>
+      </c>
       <c r="V36" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3103,22 +3730,25 @@
       <c r="Z36">
         <v>0.7000766396522522</v>
       </c>
-      <c r="AA36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300748</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-1.2</v>
@@ -3136,7 +3766,7 @@
         <v>247881.86</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37">
         <v>11</v>
@@ -3156,8 +3786,23 @@
       <c r="P37">
         <v>-0.6</v>
       </c>
+      <c r="Q37">
+        <v>-0.52</v>
+      </c>
+      <c r="R37">
+        <v>28.93</v>
+      </c>
+      <c r="S37">
+        <v>0.63</v>
+      </c>
       <c r="V37" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3165,22 +3810,25 @@
       <c r="Z37">
         <v>-0.3221589624881744</v>
       </c>
-      <c r="AA37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300803</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-2.05</v>
@@ -3198,7 +3846,7 @@
         <v>425938.46</v>
       </c>
       <c r="J38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K38">
         <v>21</v>
@@ -3218,8 +3866,23 @@
       <c r="P38">
         <v>-0.31</v>
       </c>
+      <c r="Q38">
+        <v>1.54</v>
+      </c>
+      <c r="R38">
+        <v>95.84</v>
+      </c>
+      <c r="S38">
+        <v>3.11</v>
+      </c>
       <c r="V38" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3227,22 +3890,25 @@
       <c r="Z38">
         <v>4.760698795318604</v>
       </c>
-      <c r="AA38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300830</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>4.31</v>
@@ -3260,7 +3926,7 @@
         <v>52135.65</v>
       </c>
       <c r="J39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3280,8 +3946,23 @@
       <c r="P39">
         <v>0.73</v>
       </c>
+      <c r="Q39">
+        <v>-2.28</v>
+      </c>
+      <c r="R39">
+        <v>10.89</v>
+      </c>
+      <c r="S39">
+        <v>0.09</v>
+      </c>
       <c r="V39" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3289,22 +3970,25 @@
       <c r="Z39">
         <v>5.183468341827393</v>
       </c>
-      <c r="AA39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300835</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-6.13</v>
@@ -3322,7 +4006,7 @@
         <v>93261.63</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -3342,8 +4026,23 @@
       <c r="P40">
         <v>-0.42</v>
       </c>
+      <c r="Q40">
+        <v>4.97</v>
+      </c>
+      <c r="R40">
+        <v>61.16</v>
+      </c>
+      <c r="S40">
+        <v>6.81</v>
+      </c>
       <c r="V40" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3351,22 +4050,25 @@
       <c r="Z40">
         <v>1.705831050872803</v>
       </c>
-      <c r="AA40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>300865</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-8.470000000000001</v>
@@ -3384,7 +4086,7 @@
         <v>41275.24</v>
       </c>
       <c r="J41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -3404,8 +4106,23 @@
       <c r="P41">
         <v>-1.43</v>
       </c>
+      <c r="Q41">
+        <v>-1.14</v>
+      </c>
+      <c r="R41">
+        <v>37.2</v>
+      </c>
+      <c r="S41">
+        <v>0.4</v>
+      </c>
       <c r="V41" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3413,22 +4130,25 @@
       <c r="Z41">
         <v>2.393785238265991</v>
       </c>
-      <c r="AA41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>300872</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>0.98</v>
@@ -3446,7 +4166,7 @@
         <v>141083.26</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -3466,8 +4186,23 @@
       <c r="P42">
         <v>-0.3</v>
       </c>
+      <c r="Q42">
+        <v>6.03</v>
+      </c>
+      <c r="R42">
+        <v>27.48</v>
+      </c>
+      <c r="S42">
+        <v>6.88</v>
+      </c>
       <c r="V42" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3475,22 +4210,25 @@
       <c r="Z42">
         <v>7.168582439422607</v>
       </c>
-      <c r="AA42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>300877</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>4.02</v>
@@ -3508,7 +4246,7 @@
         <v>72261.78999999999</v>
       </c>
       <c r="J43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3528,8 +4266,23 @@
       <c r="P43">
         <v>-0.39</v>
       </c>
+      <c r="Q43">
+        <v>-1.32</v>
+      </c>
+      <c r="R43">
+        <v>26.7</v>
+      </c>
+      <c r="S43">
+        <v>2.18</v>
+      </c>
       <c r="V43" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3537,22 +4290,25 @@
       <c r="Z43">
         <v>7.176490783691406</v>
       </c>
-      <c r="AA43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>300881</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>-4.27</v>
@@ -3570,7 +4326,7 @@
         <v>24885.49</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -3590,8 +4346,23 @@
       <c r="P44">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="Q44">
+        <v>-0.62</v>
+      </c>
+      <c r="R44">
+        <v>39.06</v>
+      </c>
+      <c r="S44">
+        <v>0.67</v>
+      </c>
       <c r="V44" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3599,22 +4370,25 @@
       <c r="Z44">
         <v>5.07726526260376</v>
       </c>
-      <c r="AA44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>300885</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-4.89</v>
@@ -3632,7 +4406,7 @@
         <v>50708.1</v>
       </c>
       <c r="J45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -3652,8 +4426,23 @@
       <c r="P45">
         <v>-0.55</v>
       </c>
+      <c r="Q45">
+        <v>-2.51</v>
+      </c>
+      <c r="R45">
+        <v>19</v>
+      </c>
+      <c r="S45">
+        <v>7.41</v>
+      </c>
       <c r="V45" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3661,22 +4450,25 @@
       <c r="Z45">
         <v>3.658888339996338</v>
       </c>
-      <c r="AA45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>300922</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>1.34</v>
@@ -3694,7 +4486,7 @@
         <v>25924.19</v>
       </c>
       <c r="J46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -3714,8 +4506,23 @@
       <c r="P46">
         <v>0.16</v>
       </c>
+      <c r="Q46">
+        <v>0.78</v>
+      </c>
+      <c r="R46">
+        <v>30.84</v>
+      </c>
+      <c r="S46">
+        <v>4.72</v>
+      </c>
       <c r="V46" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3723,22 +4530,25 @@
       <c r="Z46">
         <v>0.7763264179229736</v>
       </c>
-      <c r="AA46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>300955</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>-3.41</v>
@@ -3756,7 +4566,7 @@
         <v>29362.34</v>
       </c>
       <c r="J47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -3776,8 +4586,23 @@
       <c r="P47">
         <v>1.54</v>
       </c>
+      <c r="Q47">
+        <v>1.94</v>
+      </c>
+      <c r="R47">
+        <v>23.49</v>
+      </c>
+      <c r="S47">
+        <v>4.82</v>
+      </c>
       <c r="V47" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3785,22 +4610,25 @@
       <c r="Z47">
         <v>-1.518973588943481</v>
       </c>
-      <c r="AA47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301007</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>5.8</v>
@@ -3818,7 +4646,7 @@
         <v>46507.4</v>
       </c>
       <c r="J48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3838,8 +4666,23 @@
       <c r="P48">
         <v>0.42</v>
       </c>
+      <c r="Q48">
+        <v>-0.63</v>
+      </c>
+      <c r="R48">
+        <v>39.38</v>
+      </c>
+      <c r="S48">
+        <v>13.55</v>
+      </c>
       <c r="V48" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -3847,22 +4690,25 @@
       <c r="Z48">
         <v>7.58458137512207</v>
       </c>
-      <c r="AA48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301141</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-3.09</v>
@@ -3880,7 +4726,7 @@
         <v>66329.55</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K49">
         <v>21</v>
@@ -3900,8 +4746,23 @@
       <c r="P49">
         <v>-2.4</v>
       </c>
+      <c r="Q49">
+        <v>-0.12</v>
+      </c>
+      <c r="R49">
+        <v>68.95</v>
+      </c>
+      <c r="S49">
+        <v>0.85</v>
+      </c>
       <c r="V49" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3909,22 +4770,25 @@
       <c r="Z49">
         <v>3.288076400756836</v>
       </c>
-      <c r="AA49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301151</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-9.07</v>
@@ -3942,7 +4806,7 @@
         <v>41019</v>
       </c>
       <c r="J50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -3962,8 +4826,23 @@
       <c r="P50">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="Q50">
+        <v>3.26</v>
+      </c>
+      <c r="R50">
+        <v>22.98</v>
+      </c>
+      <c r="S50">
+        <v>3.28</v>
+      </c>
       <c r="V50" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3971,22 +4850,25 @@
       <c r="Z50">
         <v>5.167131423950195</v>
       </c>
-      <c r="AA50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301165</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>0.48</v>
@@ -4004,7 +4886,7 @@
         <v>37010.72</v>
       </c>
       <c r="J51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K51">
         <v>8</v>
@@ -4024,8 +4906,23 @@
       <c r="P51">
         <v>-0.5</v>
       </c>
+      <c r="Q51">
+        <v>1.22</v>
+      </c>
+      <c r="R51">
+        <v>61.96</v>
+      </c>
+      <c r="S51">
+        <v>1.89</v>
+      </c>
       <c r="V51" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -4033,22 +4930,25 @@
       <c r="Z51">
         <v>1.45371150970459</v>
       </c>
-      <c r="AA51" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301183</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>-1.1</v>
@@ -4066,7 +4966,7 @@
         <v>28952.55</v>
       </c>
       <c r="J52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -4086,8 +4986,23 @@
       <c r="P52">
         <v>-0.09</v>
       </c>
+      <c r="Q52">
+        <v>0.47</v>
+      </c>
+      <c r="R52">
+        <v>66.92</v>
+      </c>
+      <c r="S52">
+        <v>1.98</v>
+      </c>
       <c r="V52" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4095,22 +5010,25 @@
       <c r="Z52">
         <v>4.949590682983398</v>
       </c>
-      <c r="AA52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301200</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-3.2</v>
@@ -4128,7 +5046,7 @@
         <v>53391.26</v>
       </c>
       <c r="J53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -4148,8 +5066,23 @@
       <c r="P53">
         <v>0.53</v>
       </c>
+      <c r="Q53">
+        <v>19.99</v>
+      </c>
+      <c r="R53">
+        <v>69.14</v>
+      </c>
+      <c r="S53">
+        <v>19.74</v>
+      </c>
       <c r="V53" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4157,22 +5090,25 @@
       <c r="Z53">
         <v>0.6813142895698547</v>
       </c>
-      <c r="AA53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301201</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>-0.59</v>
@@ -4190,7 +5126,7 @@
         <v>26584.5</v>
       </c>
       <c r="J54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -4210,8 +5146,23 @@
       <c r="P54">
         <v>0.21</v>
       </c>
+      <c r="Q54">
+        <v>-0.3</v>
+      </c>
+      <c r="R54">
+        <v>27.49</v>
+      </c>
+      <c r="S54">
+        <v>1.4</v>
+      </c>
       <c r="V54" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4219,22 +5170,25 @@
       <c r="Z54">
         <v>5.714323043823242</v>
       </c>
-      <c r="AA54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301217</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>-11.13</v>
@@ -4252,7 +5206,7 @@
         <v>156942.94</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K55">
         <v>15</v>
@@ -4272,8 +5226,23 @@
       <c r="P55">
         <v>0.57</v>
       </c>
+      <c r="Q55">
+        <v>20</v>
+      </c>
+      <c r="R55">
+        <v>25.08</v>
+      </c>
+      <c r="S55">
+        <v>20.4</v>
+      </c>
       <c r="V55" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4281,22 +5250,25 @@
       <c r="Z55">
         <v>4.599839210510254</v>
       </c>
-      <c r="AA55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301306</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>2.95</v>
@@ -4314,7 +5286,7 @@
         <v>36651.46</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -4334,8 +5306,23 @@
       <c r="P56">
         <v>-1.47</v>
       </c>
+      <c r="Q56">
+        <v>13.82</v>
+      </c>
+      <c r="R56">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="S56">
+        <v>15.09</v>
+      </c>
       <c r="V56" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4343,22 +5330,25 @@
       <c r="Z56">
         <v>3.096418380737305</v>
       </c>
-      <c r="AA56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301345</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>12.59</v>
@@ -4376,7 +5366,7 @@
         <v>77460.19</v>
       </c>
       <c r="J57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -4396,8 +5386,23 @@
       <c r="P57">
         <v>0.12</v>
       </c>
+      <c r="Q57">
+        <v>-1.48</v>
+      </c>
+      <c r="R57">
+        <v>161.39</v>
+      </c>
+      <c r="S57">
+        <v>0.24</v>
+      </c>
       <c r="V57" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4405,22 +5410,25 @@
       <c r="Z57">
         <v>1.311542987823486</v>
       </c>
-      <c r="AA57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>301377</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>4.9</v>
@@ -4438,7 +5446,7 @@
         <v>37659.65</v>
       </c>
       <c r="J58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K58">
         <v>9</v>
@@ -4458,8 +5466,23 @@
       <c r="P58">
         <v>-0.54</v>
       </c>
+      <c r="Q58">
+        <v>12.61</v>
+      </c>
+      <c r="R58">
+        <v>57.74</v>
+      </c>
+      <c r="S58">
+        <v>17.86</v>
+      </c>
       <c r="V58" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4467,22 +5490,25 @@
       <c r="Z58">
         <v>3.805154323577881</v>
       </c>
-      <c r="AA58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>301389</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>-2.13</v>
@@ -4500,7 +5526,7 @@
         <v>34627.84</v>
       </c>
       <c r="J59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K59">
         <v>14</v>
@@ -4520,8 +5546,23 @@
       <c r="P59">
         <v>-1.36</v>
       </c>
+      <c r="Q59">
+        <v>6.71</v>
+      </c>
+      <c r="R59">
+        <v>36.44</v>
+      </c>
+      <c r="S59">
+        <v>11.47</v>
+      </c>
       <c r="V59" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4529,22 +5570,25 @@
       <c r="Z59">
         <v>1.821413159370422</v>
       </c>
-      <c r="AA59" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>301392</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>9.859999999999999</v>
@@ -4562,7 +5606,7 @@
         <v>60864.26</v>
       </c>
       <c r="J60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -4582,8 +5626,23 @@
       <c r="P60">
         <v>0.54</v>
       </c>
+      <c r="Q60">
+        <v>0.11</v>
+      </c>
+      <c r="R60">
+        <v>165.68</v>
+      </c>
+      <c r="S60">
+        <v>2.27</v>
+      </c>
       <c r="V60" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -4591,22 +5650,25 @@
       <c r="Z60">
         <v>2.700059652328491</v>
       </c>
-      <c r="AA60" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>301408</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>1.44</v>
@@ -4624,7 +5686,7 @@
         <v>30953.38</v>
       </c>
       <c r="J61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -4644,8 +5706,23 @@
       <c r="P61">
         <v>0.64</v>
       </c>
+      <c r="Q61">
+        <v>-1.63</v>
+      </c>
+      <c r="R61">
+        <v>14.93</v>
+      </c>
+      <c r="S61">
+        <v>1.08</v>
+      </c>
       <c r="V61" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4653,22 +5730,25 @@
       <c r="Z61">
         <v>1.318673968315125</v>
       </c>
-      <c r="AA61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>301421</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>3.97</v>
@@ -4686,7 +5766,7 @@
         <v>75543.39</v>
       </c>
       <c r="J62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K62">
         <v>25</v>
@@ -4706,8 +5786,23 @@
       <c r="P62">
         <v>-0.66</v>
       </c>
+      <c r="Q62">
+        <v>-2.71</v>
+      </c>
+      <c r="R62">
+        <v>86</v>
+      </c>
+      <c r="S62">
+        <v>4.23</v>
+      </c>
       <c r="V62" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4715,22 +5810,25 @@
       <c r="Z62">
         <v>0.7854580283164978</v>
       </c>
-      <c r="AA62" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>301511</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>-3.94</v>
@@ -4748,7 +5846,7 @@
         <v>67766.12</v>
       </c>
       <c r="J63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K63">
         <v>24</v>
@@ -4768,8 +5866,23 @@
       <c r="P63">
         <v>-0.08</v>
       </c>
+      <c r="Q63">
+        <v>12.14</v>
+      </c>
+      <c r="R63">
+        <v>31.4</v>
+      </c>
+      <c r="S63">
+        <v>13.93</v>
+      </c>
       <c r="V63" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4777,22 +5890,25 @@
       <c r="Z63">
         <v>10.62889003753662</v>
       </c>
-      <c r="AA63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>301526</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>-2.04</v>
@@ -4810,7 +5926,7 @@
         <v>31659.18</v>
       </c>
       <c r="J64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K64">
         <v>14</v>
@@ -4830,8 +5946,23 @@
       <c r="P64">
         <v>-1.04</v>
       </c>
+      <c r="Q64">
+        <v>2.7</v>
+      </c>
+      <c r="R64">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>4.17</v>
+      </c>
       <c r="V64" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>1</v>
@@ -4839,22 +5970,25 @@
       <c r="Z64">
         <v>1.911199450492859</v>
       </c>
-      <c r="AA64" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>301529</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>8.279999999999999</v>
@@ -4872,7 +6006,7 @@
         <v>33527.81</v>
       </c>
       <c r="J65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K65">
         <v>5</v>
@@ -4892,8 +6026,23 @@
       <c r="P65">
         <v>0.64</v>
       </c>
+      <c r="Q65">
+        <v>3.27</v>
+      </c>
+      <c r="R65">
+        <v>62.97</v>
+      </c>
+      <c r="S65">
+        <v>4.95</v>
+      </c>
       <c r="V65" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4901,22 +6050,25 @@
       <c r="Z65">
         <v>3.003817081451416</v>
       </c>
-      <c r="AA65" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>301556</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>6.78</v>
@@ -4934,7 +6086,7 @@
         <v>36664.03</v>
       </c>
       <c r="J66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -4954,8 +6106,23 @@
       <c r="P66">
         <v>0.27</v>
       </c>
+      <c r="Q66">
+        <v>-1.76</v>
+      </c>
+      <c r="R66">
+        <v>123.85</v>
+      </c>
+      <c r="S66">
+        <v>0.86</v>
+      </c>
       <c r="V66" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4963,22 +6130,25 @@
       <c r="Z66">
         <v>-0.1464724689722061</v>
       </c>
-      <c r="AA66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>301626</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>2.7</v>
@@ -4996,7 +6166,7 @@
         <v>34473.34</v>
       </c>
       <c r="J67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K67">
         <v>4</v>
@@ -5016,8 +6186,23 @@
       <c r="P67">
         <v>0.54</v>
       </c>
+      <c r="Q67">
+        <v>-1.14</v>
+      </c>
+      <c r="R67">
+        <v>145.88</v>
+      </c>
+      <c r="S67">
+        <v>0.89</v>
+      </c>
       <c r="V67" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -5025,22 +6210,25 @@
       <c r="Z67">
         <v>1.872216105461121</v>
       </c>
-      <c r="AA67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>688062</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
         <v>-1.93</v>
@@ -5058,7 +6246,7 @@
         <v>40464.44</v>
       </c>
       <c r="J68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K68">
         <v>17</v>
@@ -5078,8 +6266,23 @@
       <c r="P68">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="Q68">
+        <v>3.36</v>
+      </c>
+      <c r="R68">
+        <v>33.97</v>
+      </c>
+      <c r="S68">
+        <v>4.2</v>
+      </c>
       <c r="V68" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -5087,22 +6290,25 @@
       <c r="Z68">
         <v>3.833625555038452</v>
       </c>
-      <c r="AA68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>688117</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>2.4</v>
@@ -5120,7 +6326,7 @@
         <v>36838.18</v>
       </c>
       <c r="J69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K69">
         <v>9</v>
@@ -5140,8 +6346,23 @@
       <c r="P69">
         <v>-0.04</v>
       </c>
+      <c r="Q69">
+        <v>2.47</v>
+      </c>
+      <c r="R69">
+        <v>42.33</v>
+      </c>
+      <c r="S69">
+        <v>3.17</v>
+      </c>
       <c r="V69" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -5149,22 +6370,25 @@
       <c r="Z69">
         <v>2.514851331710815</v>
       </c>
-      <c r="AA69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>688155</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>-1.7</v>
@@ -5182,7 +6406,7 @@
         <v>25504.62</v>
       </c>
       <c r="J70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -5202,8 +6426,23 @@
       <c r="P70">
         <v>0.08</v>
       </c>
+      <c r="Q70">
+        <v>-0.04</v>
+      </c>
+      <c r="R70">
+        <v>58.5</v>
+      </c>
+      <c r="S70">
+        <v>5.52</v>
+      </c>
       <c r="V70" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -5211,22 +6450,25 @@
       <c r="Z70">
         <v>3.189009189605713</v>
       </c>
-      <c r="AA70" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>688202</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71">
         <v>1.52</v>
@@ -5244,7 +6486,7 @@
         <v>68846.23</v>
       </c>
       <c r="J71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K71">
         <v>14</v>
@@ -5264,8 +6506,23 @@
       <c r="P71">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q71">
+        <v>3.19</v>
+      </c>
+      <c r="R71">
+        <v>67.98</v>
+      </c>
+      <c r="S71">
+        <v>0.53</v>
+      </c>
       <c r="V71" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -5273,22 +6530,25 @@
       <c r="Z71">
         <v>1.213170647621155</v>
       </c>
-      <c r="AA71" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>688210</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72">
         <v>4.12</v>
@@ -5306,7 +6566,7 @@
         <v>59246.14</v>
       </c>
       <c r="J72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -5326,8 +6586,23 @@
       <c r="P72">
         <v>0.22</v>
       </c>
+      <c r="Q72">
+        <v>-3.84</v>
+      </c>
+      <c r="R72">
+        <v>35.25</v>
+      </c>
+      <c r="S72">
+        <v>1.09</v>
+      </c>
       <c r="V72" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -5335,22 +6610,25 @@
       <c r="Z72">
         <v>3.066607713699341</v>
       </c>
-      <c r="AA72" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>688222</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>-4.85</v>
@@ -5368,7 +6646,7 @@
         <v>70694.7</v>
       </c>
       <c r="J73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -5388,8 +6666,23 @@
       <c r="P73">
         <v>-1.23</v>
       </c>
+      <c r="Q73">
+        <v>-0.31</v>
+      </c>
+      <c r="R73">
+        <v>23.25</v>
+      </c>
+      <c r="S73">
+        <v>1.22</v>
+      </c>
       <c r="V73" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -5397,22 +6690,25 @@
       <c r="Z73">
         <v>0.1917416751384735</v>
       </c>
-      <c r="AA73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74">
         <v>688257</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74">
         <v>-5.21</v>
@@ -5430,7 +6726,7 @@
         <v>24671.44</v>
       </c>
       <c r="J74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K74">
         <v>3</v>
@@ -5450,8 +6746,23 @@
       <c r="P74">
         <v>-1.22</v>
       </c>
+      <c r="Q74">
+        <v>0.66</v>
+      </c>
+      <c r="R74">
+        <v>17.05</v>
+      </c>
+      <c r="S74">
+        <v>1.91</v>
+      </c>
       <c r="V74" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -5459,22 +6770,25 @@
       <c r="Z74">
         <v>1.679729461669922</v>
       </c>
-      <c r="AA74" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75">
         <v>688313</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75">
         <v>3.8</v>
@@ -5492,7 +6806,7 @@
         <v>134852.44</v>
       </c>
       <c r="J75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K75">
         <v>28</v>
@@ -5512,8 +6826,23 @@
       <c r="P75">
         <v>-0.14</v>
       </c>
+      <c r="Q75">
+        <v>9.27</v>
+      </c>
+      <c r="R75">
+        <v>61.2</v>
+      </c>
+      <c r="S75">
+        <v>9.83</v>
+      </c>
       <c r="V75" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -5521,22 +6850,25 @@
       <c r="Z75">
         <v>2.586652755737305</v>
       </c>
-      <c r="AA75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76">
         <v>688321</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76">
         <v>-2.9</v>
@@ -5554,7 +6886,7 @@
         <v>77914.44</v>
       </c>
       <c r="J76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K76">
         <v>19</v>
@@ -5574,8 +6906,23 @@
       <c r="P76">
         <v>-0.65</v>
       </c>
+      <c r="Q76">
+        <v>0.92</v>
+      </c>
+      <c r="R76">
+        <v>34.66</v>
+      </c>
+      <c r="S76">
+        <v>2.57</v>
+      </c>
       <c r="V76" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -5583,22 +6930,25 @@
       <c r="Z76">
         <v>6.955718994140625</v>
       </c>
-      <c r="AA76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>688356</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E77">
         <v>-3.44</v>
@@ -5616,7 +6966,7 @@
         <v>30420.5</v>
       </c>
       <c r="J77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K77">
         <v>4</v>
@@ -5636,8 +6986,23 @@
       <c r="P77">
         <v>-0.55</v>
       </c>
+      <c r="Q77">
+        <v>1.17</v>
+      </c>
+      <c r="R77">
+        <v>101.89</v>
+      </c>
+      <c r="S77">
+        <v>2.9</v>
+      </c>
       <c r="V77" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -5645,22 +7010,25 @@
       <c r="Z77">
         <v>4.391916751861572</v>
       </c>
-      <c r="AA77" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78">
         <v>688499</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78">
         <v>0.36</v>
@@ -5678,7 +7046,7 @@
         <v>51775.01</v>
       </c>
       <c r="J78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K78">
         <v>29</v>
@@ -5698,8 +7066,23 @@
       <c r="P78">
         <v>-0.63</v>
       </c>
+      <c r="Q78">
+        <v>4.02</v>
+      </c>
+      <c r="R78">
+        <v>55.99</v>
+      </c>
+      <c r="S78">
+        <v>6.36</v>
+      </c>
       <c r="V78" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -5707,22 +7090,25 @@
       <c r="Z78">
         <v>2.459744930267334</v>
       </c>
-      <c r="AA78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79">
         <v>688660</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79">
         <v>-1.13</v>
@@ -5740,7 +7126,7 @@
         <v>133646.73</v>
       </c>
       <c r="J79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K79">
         <v>3</v>
@@ -5760,8 +7146,23 @@
       <c r="P79">
         <v>-0.7</v>
       </c>
+      <c r="Q79">
+        <v>17.47</v>
+      </c>
+      <c r="R79">
+        <v>15.3</v>
+      </c>
+      <c r="S79">
+        <v>16.08</v>
+      </c>
       <c r="V79" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -5769,22 +7170,25 @@
       <c r="Z79">
         <v>2.401441335678101</v>
       </c>
-      <c r="AA79" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80">
         <v>688668</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80">
         <v>-0.72</v>
@@ -5802,7 +7206,7 @@
         <v>55955.39</v>
       </c>
       <c r="J80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K80">
         <v>7</v>
@@ -5822,8 +7226,23 @@
       <c r="P80">
         <v>-0.17</v>
       </c>
+      <c r="Q80">
+        <v>5.15</v>
+      </c>
+      <c r="R80">
+        <v>81.78</v>
+      </c>
+      <c r="S80">
+        <v>4.6</v>
+      </c>
       <c r="V80" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
       </c>
       <c r="Y80">
         <v>0</v>
@@ -5831,8 +7250,11 @@
       <c r="Z80">
         <v>4.800898551940918</v>
       </c>
-      <c r="AA80" t="s">
-        <v>157</v>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
